--- a/data/trans_dic/P20B-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.107726003613008</v>
+        <v>0.1116510823344828</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1846805423577095</v>
+        <v>0.1920178507495876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.208160810203825</v>
+        <v>0.2152363359657179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2195407720882505</v>
+        <v>0.2088902667574709</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07997097173804774</v>
+        <v>0.08872699511747971</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1573079439579219</v>
+        <v>0.1593814730194224</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1311186238364821</v>
+        <v>0.1259587004456212</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09587529667602829</v>
+        <v>0.0926767357127722</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1104745509318938</v>
+        <v>0.1105817947487799</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1881282721868994</v>
+        <v>0.1919604523921229</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.185267504427516</v>
+        <v>0.1817761277821595</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1815575459289397</v>
+        <v>0.1836244992484576</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3924333026493877</v>
+        <v>0.388069003104207</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3821662611834963</v>
+        <v>0.3803443497620485</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4854791677665168</v>
+        <v>0.4772084910588352</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4857562945850111</v>
+        <v>0.4728247680143016</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2395362351872377</v>
+        <v>0.2350831688495983</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3030269653980181</v>
+        <v>0.308646785020846</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3012043699962751</v>
+        <v>0.2900196426344855</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2942276411381755</v>
+        <v>0.2839625954858415</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2500940374285216</v>
+        <v>0.2451468193630794</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3087212124346345</v>
+        <v>0.306830534998222</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3290939108681641</v>
+        <v>0.3257207365515614</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3513174989060376</v>
+        <v>0.3538741664867205</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3205714262368076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2940350345777537</v>
+        <v>0.2940350345777538</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2835860009077908</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2207665033397987</v>
+        <v>0.2152647363037156</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1681809850433124</v>
+        <v>0.1616420731208796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2007380673687973</v>
+        <v>0.2008371116944346</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1837170824564709</v>
+        <v>0.1745194008855588</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1766657052975816</v>
+        <v>0.1849201705784197</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1491617485913627</v>
+        <v>0.1471764082289689</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1896433289643839</v>
+        <v>0.1690023265580929</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1692902851841074</v>
+        <v>0.1658568806873168</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2338215659543401</v>
+        <v>0.2203230422566957</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1880913915474133</v>
+        <v>0.1788957941128388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.218671297658832</v>
+        <v>0.21135054603198</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1950435637355029</v>
+        <v>0.196367169387999</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.50437405644904</v>
+        <v>0.5019983441891279</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4971840633785404</v>
+        <v>0.4810487070547841</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4837640481272611</v>
+        <v>0.4690416331139731</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4215595913946268</v>
+        <v>0.4164932932739139</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.401330599111991</v>
+        <v>0.409939138459355</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3227921035360913</v>
+        <v>0.3290542985077096</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4009392333950828</v>
+        <v>0.3994281961502285</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3264851913877162</v>
+        <v>0.3329759677969129</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4133866036858002</v>
+        <v>0.4022577156952553</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3388322863122196</v>
+        <v>0.3292002315605362</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3999040576157779</v>
+        <v>0.3844408214763603</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3334812558746215</v>
+        <v>0.3376601043929973</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4640665741426585</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3125363421542732</v>
+        <v>0.3125363421542731</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1997505450329898</v>
@@ -957,7 +957,7 @@
         <v>0.2283971574058011</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2517529293176826</v>
+        <v>0.2517529293176825</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2232278442037612</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1566075903396447</v>
+        <v>0.1382650759489499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1971735670811824</v>
+        <v>0.1961586156260254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3257289281743191</v>
+        <v>0.3055176793788249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.191103084837943</v>
+        <v>0.2034117549440975</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1200927151369268</v>
+        <v>0.1204385612777417</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2008674394282563</v>
+        <v>0.2074835406652222</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1280920661779738</v>
+        <v>0.1365558052519854</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1641907378879603</v>
+        <v>0.1684293354836188</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1516010183030023</v>
+        <v>0.149460610270976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2357362057442371</v>
+        <v>0.2416575475013066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2348591935509041</v>
+        <v>0.2332000147631739</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2021485426710001</v>
+        <v>0.207130221069631</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4330945642070291</v>
+        <v>0.4151901046534557</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4921385274647052</v>
+        <v>0.4744189937813811</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6200270155746384</v>
+        <v>0.6354531534563098</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4451689057980551</v>
+        <v>0.4556841964932152</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3011121966038456</v>
+        <v>0.2975780223444885</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4753593809915751</v>
+        <v>0.4693184724790578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3533894971344278</v>
+        <v>0.3572060918263731</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3674668116105066</v>
+        <v>0.3660545403988298</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2979707878675004</v>
+        <v>0.3012604681975491</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4294329085840463</v>
+        <v>0.4348589290629835</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4159925100304977</v>
+        <v>0.4223498133238589</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3621636877730939</v>
+        <v>0.3717899398292803</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1388209944797095</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3600479623297447</v>
+        <v>0.3600479623297448</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.148375330809637</v>
@@ -1093,7 +1093,7 @@
         <v>0.3190388986837722</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2639336946272139</v>
+        <v>0.263933694627214</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1622301894954958</v>
@@ -1105,7 +1105,7 @@
         <v>0.2458076372248265</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3074635692473204</v>
+        <v>0.3074635692473205</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05014022933407038</v>
+        <v>0.04358650173981592</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1668864327887609</v>
+        <v>0.1755945179628093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04389942951621296</v>
+        <v>0.04348552823968544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2395503123715998</v>
+        <v>0.2368373440022274</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03665825040541258</v>
+        <v>0.04440986516379661</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1080202509161343</v>
+        <v>0.1286867869677197</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1421572868647899</v>
+        <v>0.1673924213404187</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.166455359563811</v>
+        <v>0.1678301009382973</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07088887692818983</v>
+        <v>0.07109490767715836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1755410093666027</v>
+        <v>0.1818176707747444</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1333062606913511</v>
+        <v>0.1373498845746369</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2241707091310363</v>
+        <v>0.2278385782386581</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3651134633864228</v>
+        <v>0.4066584829482706</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5189614081079091</v>
+        <v>0.5032257742066716</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3315041637323192</v>
+        <v>0.3536569180617185</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5141182110134342</v>
+        <v>0.5106223608053257</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3590499463241208</v>
+        <v>0.3565984021917708</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3867839603362833</v>
+        <v>0.4129491586793353</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5279913487171802</v>
+        <v>0.5445513259550252</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3991993509247377</v>
+        <v>0.4244161142297571</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3121269712346792</v>
+        <v>0.2873253807319121</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3994520732987016</v>
+        <v>0.3941059823455452</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.391515526545982</v>
+        <v>0.4073793872315658</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4145718882654111</v>
+        <v>0.4123820132044756</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2790427273524443</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2771392545323206</v>
+        <v>0.2771392545323205</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1963268852059614</v>
+        <v>0.1968388338489838</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2381225695088485</v>
+        <v>0.2332073644216135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2606552240369022</v>
+        <v>0.2628147233379066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2648317135297178</v>
+        <v>0.2609886853928517</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1503476516006583</v>
+        <v>0.1561860921799026</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1950162777782999</v>
+        <v>0.1955654125094698</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1901369583282929</v>
+        <v>0.1894617391905537</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1844662444128358</v>
+        <v>0.1809357002144929</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2286282771276149</v>
+        <v>0.2288367072288141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2372509371483369</v>
+        <v>0.2359560388591452</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2372865267694618</v>
+        <v>0.2401155952552492</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3522973448318406</v>
+        <v>0.3473716271979972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3670184161146139</v>
+        <v>0.3641066265390796</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4123619944760615</v>
+        <v>0.4256120822722517</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3961351406550377</v>
+        <v>0.3946983425880214</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2488102268999672</v>
+        <v>0.2538284565214185</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3026936603199359</v>
+        <v>0.3064048092873459</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2923932270665187</v>
+        <v>0.2918870210567798</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.275468110243343</v>
+        <v>0.2652085982137758</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.304331994952572</v>
+        <v>0.3068053905934142</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.325856530564763</v>
+        <v>0.3243508958468161</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3200830401545127</v>
+        <v>0.3222970201555571</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3375</v>
+        <v>3498</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16683</v>
+        <v>17346</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11633</v>
+        <v>12029</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10566</v>
+        <v>10053</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6730</v>
+        <v>7466</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20773</v>
+        <v>21047</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13356</v>
+        <v>12830</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4764</v>
+        <v>4605</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12757</v>
+        <v>12770</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>41838</v>
+        <v>42690</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29226</v>
+        <v>28675</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>17759</v>
+        <v>17961</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12295</v>
+        <v>12158</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34523</v>
+        <v>34359</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27132</v>
+        <v>26670</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23378</v>
+        <v>22755</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20157</v>
+        <v>19782</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40016</v>
+        <v>40758</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30681</v>
+        <v>29542</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14619</v>
+        <v>14109</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28881</v>
+        <v>28309</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>68657</v>
+        <v>68236</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51914</v>
+        <v>51382</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>34364</v>
+        <v>34614</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8641</v>
+        <v>8425</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7275</v>
+        <v>6992</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8589</v>
+        <v>8593</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9382</v>
+        <v>8913</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10784</v>
+        <v>11288</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16716</v>
+        <v>16494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14019</v>
+        <v>12493</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11466</v>
+        <v>11233</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23424</v>
+        <v>22072</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>29215</v>
+        <v>27787</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25521</v>
+        <v>24667</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>23171</v>
+        <v>23328</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19741</v>
+        <v>19648</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21506</v>
+        <v>20808</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20698</v>
+        <v>20068</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21529</v>
+        <v>21270</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24498</v>
+        <v>25023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36175</v>
+        <v>36876</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29639</v>
+        <v>29527</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22113</v>
+        <v>22552</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41413</v>
+        <v>40298</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>52628</v>
+        <v>51132</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>46672</v>
+        <v>44868</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>39617</v>
+        <v>40113</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6066</v>
+        <v>5355</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8188</v>
+        <v>8146</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12873</v>
+        <v>12074</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10271</v>
+        <v>10933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9203</v>
+        <v>9230</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10380</v>
+        <v>10722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7924</v>
+        <v>8447</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10278</v>
+        <v>10543</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17489</v>
+        <v>17243</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21972</v>
+        <v>22524</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>23810</v>
+        <v>23642</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>23518</v>
+        <v>24098</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16774</v>
+        <v>16081</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20438</v>
+        <v>19702</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24504</v>
+        <v>25114</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23926</v>
+        <v>24491</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23075</v>
+        <v>22805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24566</v>
+        <v>24253</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21861</v>
+        <v>22097</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23002</v>
+        <v>22914</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>34375</v>
+        <v>34755</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40026</v>
+        <v>40531</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>42174</v>
+        <v>42818</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>42135</v>
+        <v>43255</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1076</v>
+        <v>936</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5448</v>
+        <v>5733</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12031</v>
+        <v>11895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>750</v>
+        <v>909</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4184</v>
+        <v>4985</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4381</v>
+        <v>5159</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10099</v>
+        <v>10183</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2973</v>
+        <v>2981</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>12530</v>
+        <v>12978</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6921</v>
+        <v>7131</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>24860</v>
+        <v>25267</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7837</v>
+        <v>8729</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16943</v>
+        <v>16429</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6994</v>
+        <v>7461</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25822</v>
+        <v>25646</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7349</v>
+        <v>7299</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14982</v>
+        <v>15996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16273</v>
+        <v>16784</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24221</v>
+        <v>25751</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13088</v>
+        <v>12048</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>28513</v>
+        <v>28132</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20327</v>
+        <v>21150</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>45975</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25653</v>
+        <v>25720</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>49474</v>
+        <v>48452</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>41520</v>
+        <v>41864</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>53805</v>
+        <v>53024</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>36428</v>
+        <v>37843</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>52355</v>
+        <v>52503</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45763</v>
+        <v>45601</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>68798</v>
+        <v>67481</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>123985</v>
+        <v>124098</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>101486</v>
+        <v>100932</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>105320</v>
+        <v>106576</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>46032</v>
+        <v>45389</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>76254</v>
+        <v>75649</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>65686</v>
+        <v>67796</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>80482</v>
+        <v>80190</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>60285</v>
+        <v>61501</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>81263</v>
+        <v>82259</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>70375</v>
+        <v>70253</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>102738</v>
+        <v>98912</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>165040</v>
+        <v>166381</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>139387</v>
+        <v>138743</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>142069</v>
+        <v>143052</v>
       </c>
     </row>
     <row r="24">
